--- a/data/gihun/dataset/울산시출산율모델.xlsx
+++ b/data/gihun/dataset/울산시출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.3962585034013605</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>588</v>
       </c>
       <c r="F81" t="n">
         <v>75.80800000000001</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.003549332890503354</v>
+      </c>
       <c r="H81" t="n">
         <v>52.7</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.4979591836734694</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>490</v>
       </c>
       <c r="F82" t="n">
         <v>75.884</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.003543108153452464</v>
+      </c>
       <c r="H82" t="n">
         <v>52.9</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.4033057851239669</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>605</v>
       </c>
       <c r="F83" t="n">
         <v>76.482</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.003536883416401573</v>
+      </c>
       <c r="H83" t="n">
         <v>53.5</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.3861940298507462</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>536</v>
       </c>
       <c r="F84" t="n">
         <v>76.557</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.003530658679350682</v>
+      </c>
       <c r="H84" t="n">
         <v>54.1</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.3178191489361702</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>752</v>
       </c>
       <c r="F85" t="n">
         <v>76.85599999999999</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.003524433942299792</v>
+      </c>
       <c r="H85" t="n">
         <v>55</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.3246575342465753</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>730</v>
       </c>
       <c r="F86" t="n">
         <v>76.63200000000001</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.003518209205248902</v>
+      </c>
       <c r="H86" t="n">
         <v>55.5</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.4940476190476191</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>504</v>
       </c>
       <c r="F87" t="n">
         <v>77.006</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.003511984468198011</v>
+      </c>
       <c r="H87" t="n">
         <v>55.8</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.5546719681908548</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>503</v>
       </c>
       <c r="F88" t="n">
         <v>77.605</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.00350575973114712</v>
+      </c>
       <c r="H88" t="n">
         <v>56</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.6730245231607629</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>367</v>
       </c>
       <c r="F89" t="n">
         <v>77.904</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.00349953499409623</v>
+      </c>
       <c r="H89" t="n">
         <v>56.5</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.4112734864300626</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>479</v>
       </c>
       <c r="F90" t="n">
         <v>77.455</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.003493310257045339</v>
+      </c>
       <c r="H90" t="n">
         <v>57.6</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.2743682310469314</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>831</v>
       </c>
       <c r="F91" t="n">
         <v>77.006</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.003487085519994449</v>
+      </c>
       <c r="H91" t="n">
         <v>59.2</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.1994584837545126</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>1108</v>
       </c>
       <c r="F92" t="n">
         <v>77.306</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.003480860782943558</v>
+      </c>
       <c r="H92" t="n">
         <v>60.2</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3315926892950392</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>766</v>
       </c>
       <c r="F93" t="n">
         <v>77.38</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.003474636045892667</v>
+      </c>
       <c r="H93" t="n">
         <v>61.1</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3162790697674419</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.299999999999999</v>
+      </c>
       <c r="E94" t="n">
         <v>645</v>
       </c>
       <c r="F94" t="n">
         <v>77.904</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.003468542310421673</v>
+      </c>
       <c r="H94" t="n">
         <v>61.7</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.380794701986755</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9</v>
+      </c>
       <c r="E95" t="n">
         <v>604</v>
       </c>
       <c r="F95" t="n">
         <v>78.428</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.003462448574950678</v>
+      </c>
       <c r="H95" t="n">
         <v>62</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.4517958412098299</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="E96" t="n">
         <v>529</v>
       </c>
       <c r="F96" t="n">
         <v>78.652</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003456354839479684</v>
+      </c>
       <c r="H96" t="n">
         <v>62.4</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.3235724743777452</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>8.4</v>
+      </c>
       <c r="E97" t="n">
         <v>683</v>
       </c>
       <c r="F97" t="n">
         <v>78.80200000000001</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003450261104008689</v>
+      </c>
       <c r="H97" t="n">
         <v>62.5</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3255451713395638</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>8.1</v>
+      </c>
       <c r="E98" t="n">
         <v>642</v>
       </c>
       <c r="F98" t="n">
         <v>78.80200000000001</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003444167368537694</v>
+      </c>
       <c r="H98" t="n">
         <v>63</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.5</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>7.8</v>
+      </c>
       <c r="E99" t="n">
         <v>532</v>
       </c>
       <c r="F99" t="n">
         <v>79.17700000000001</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.0034380736330667</v>
+      </c>
       <c r="H99" t="n">
         <v>63.1</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.3219047619047619</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>7.5</v>
+      </c>
       <c r="E100" t="n">
         <v>525</v>
       </c>
       <c r="F100" t="n">
         <v>79.32599999999999</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003431979897595705</v>
+      </c>
       <c r="H100" t="n">
         <v>63.1</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.3798449612403101</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>7.199999999999999</v>
+      </c>
       <c r="E101" t="n">
         <v>387</v>
       </c>
       <c r="F101" t="n">
         <v>79.925</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003425886162124711</v>
+      </c>
       <c r="H101" t="n">
         <v>63.1</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.4075993091537133</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>6.9</v>
+      </c>
       <c r="E102" t="n">
         <v>579</v>
       </c>
       <c r="F102" t="n">
         <v>79.999</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003419792426653716</v>
+      </c>
       <c r="H102" t="n">
         <v>63.2</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3060453400503778</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>6.6</v>
+      </c>
       <c r="E103" t="n">
         <v>794</v>
       </c>
       <c r="F103" t="n">
         <v>80.075</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.003413698691182721</v>
+      </c>
       <c r="H103" t="n">
         <v>63.3</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.1858608893956671</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>6.3</v>
+      </c>
       <c r="E104" t="n">
         <v>877</v>
       </c>
       <c r="F104" t="n">
         <v>80.298</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003407604955711727</v>
+      </c>
       <c r="H104" t="n">
         <v>63.2</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.83</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H273" t="n">
         <v>106.4</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.18</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H274" t="n">
         <v>106.5</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>105.88</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H275" t="n">
         <v>106.5</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>106.75</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H276" t="n">
         <v>106.7</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>107.42</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H277" t="n">
         <v>106.7</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>107.96</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H278" t="n">
         <v>106.8</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>108.45</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H279" t="n">
         <v>106.8</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>108.32</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H280" t="n">
         <v>106.3</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>108.77</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H281" t="n">
         <v>105.6</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>109.17</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H282" t="n">
         <v>104.3</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>108.97</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H283" t="n">
         <v>101.7</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>14.7</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.15</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H284" t="n">
         <v>98.7</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.06</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.001666054955070127</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
